--- a/instance/zyjk/swagger/saascrf.xlsx
+++ b/instance/zyjk/swagger/saascrf.xlsx
@@ -59,29 +59,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -93,24 +72,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -492,2641 +453,2646 @@
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="40" customWidth="1" min="7" max="7"/>
-    <col width="70" customWidth="1" min="8" max="8"/>
+    <col width="80" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="12" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>tags</t>
         </is>
       </c>
-      <c r="B1" s="12" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="C1" s="12" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>paths</t>
         </is>
       </c>
-      <c r="D1" s="12" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="12" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>consumes</t>
         </is>
       </c>
-      <c r="F1" s="12" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>query</t>
         </is>
       </c>
-      <c r="G1" s="12" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>body</t>
         </is>
       </c>
-      <c r="H1" s="12" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>parameters [参数名称，参数说明，请求类型，是否必须，数据类型，schema]</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>业务模块，公共服务</t>
         </is>
       </c>
-      <c r="B2" s="11" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>获取元素数据源--元素信息</t>
         </is>
       </c>
-      <c r="C2" s="11" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>/saascrf/common/getElementDatas</t>
         </is>
       </c>
-      <c r="D2" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F2" s="11" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>codeType={string}&amp;selected={string}&amp;sysName={string}</t>
         </is>
       </c>
-      <c r="H2" s="11" t="inlineStr">
+      <c r="H2" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'codeType', 'in': 'query', 'description': 'codeType', 'required': False, 'type': 'string'}, {'name': 'selected', 'in': 'query', 'description': 'selected', 'required': False, 'type': 'string'}, {'name': 'sysName', 'in': 'query', 'description': 'sysName', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>业务模块，公共服务</t>
         </is>
       </c>
-      <c r="B3" s="11" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>获取标准代码树</t>
         </is>
       </c>
-      <c r="C3" s="11" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>/saascrf/common/listStandardCodeTree</t>
         </is>
       </c>
-      <c r="D3" s="11" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>业务模块，公共服务</t>
         </is>
       </c>
-      <c r="B4" s="11" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>省市区三级联动</t>
         </is>
       </c>
-      <c r="C4" s="11" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>/saascrf/common/showArea</t>
         </is>
       </c>
-      <c r="D4" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F4" s="11" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>code={string}&amp;codeType={string}&amp;sysName={string}</t>
         </is>
       </c>
-      <c r="H4" s="11" t="inlineStr">
+      <c r="H4" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'code', 'in': 'query', 'description': '代码', 'required': False, 'type': 'string'}, {'name': 'codeType', 'in': 'query', 'description': '代码类别', 'required': False, 'type': 'string'}, {'name': 'sysName', 'in': 'query', 'description': '系统名称', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>业务模块，公共服务</t>
         </is>
       </c>
-      <c r="B5" s="11" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>查询--标准代码</t>
         </is>
       </c>
-      <c r="C5" s="11" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>/saascrf/common/standardCodes</t>
         </is>
       </c>
-      <c r="D5" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F5" s="11" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>codeType={string}&amp;sysName={string}</t>
         </is>
       </c>
-      <c r="H5" s="11" t="inlineStr">
+      <c r="H5" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'codeType', 'in': 'query', 'description': '代码类别', 'required': False, 'type': 'string'}, {'name': 'sysName', 'in': 'query', 'description': '系统名称', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>业务模块，公共服务</t>
         </is>
       </c>
-      <c r="B6" s="11" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>查询--标准代码(通过code)</t>
         </is>
       </c>
-      <c r="C6" s="11" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>/saascrf/common/standardCodesByCode</t>
         </is>
       </c>
-      <c r="D6" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F6" s="11" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>code={string}&amp;codeType={string}&amp;sysName={string}</t>
         </is>
       </c>
-      <c r="H6" s="11" t="inlineStr">
+      <c r="H6" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'code', 'in': 'query', 'description': '编码', 'required': False, 'type': 'string'}, {'name': 'codeType', 'in': 'query', 'description': '代码类别', 'required': False, 'type': 'string'}, {'name': 'sysName', 'in': 'query', 'description': '系统名称', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>crf_元素分类表接口</t>
         </is>
       </c>
-      <c r="B7" s="11" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>保存标签信息</t>
         </is>
       </c>
-      <c r="C7" s="11" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfElementClassify/addClassify</t>
         </is>
       </c>
-      <c r="D7" s="11" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E7" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F7" s="11" t="inlineStr"/>
-      <c r="G7" s="11" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr"/>
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>{"classifyCode": 0, "classifyName": "", "parentCode": 0}</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>crf_元素分类表接口</t>
         </is>
       </c>
-      <c r="B8" s="11" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>验证标签名称是否重复以及是否可删除</t>
         </is>
       </c>
-      <c r="C8" s="11" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfElementClassify/checkClassifyName</t>
         </is>
       </c>
-      <c r="D8" s="11" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>put</t>
         </is>
       </c>
-      <c r="E8" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F8" s="11" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>classifyCode={*integer}&amp;classifyName={*string}&amp;type={*ref}</t>
         </is>
       </c>
-      <c r="H8" s="11" t="inlineStr">
+      <c r="H8" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'classifyCode', 'in': 'query', 'description': '分类代码', 'required': True, 'type': 'integer', 'format': 'int64'}, {'name': 'classifyName', 'in': 'query', 'description': '分类名称', 'required': True, 'type': 'string'}, {'name': 'type', 'in': 'query', 'description': '类型  验证分类名称重复--1    验证是否重复--2', 'required': True, 'type': 'ref'}]</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>crf_元素分类表接口</t>
         </is>
       </c>
-      <c r="B9" s="11" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>删除标签信息</t>
         </is>
       </c>
-      <c r="C9" s="11" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfElementClassify/delClassify</t>
         </is>
       </c>
-      <c r="D9" s="11" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>delete</t>
         </is>
       </c>
-      <c r="F9" s="11" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>classifyCode={*integer}</t>
         </is>
       </c>
-      <c r="H9" s="11" t="inlineStr">
+      <c r="H9" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'classifyCode', 'in': 'query', 'description': '分类代码', 'required': True, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>crf_元素分类表接口</t>
         </is>
       </c>
-      <c r="B10" s="11" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>根据标签代码查询单个列表</t>
         </is>
       </c>
-      <c r="C10" s="11" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfElementClassify/getClassifyList</t>
         </is>
       </c>
-      <c r="D10" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F10" s="11" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t>classifyCode={*integer}</t>
         </is>
       </c>
-      <c r="H10" s="11" t="inlineStr">
+      <c r="H10" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'classifyCode', 'in': 'query', 'description': '分类代码', 'required': True, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>crf_元素分类表接口</t>
         </is>
       </c>
-      <c r="B11" s="11" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>根据标签名称或者元素名称查询单个分类或者元素</t>
         </is>
       </c>
-      <c r="C11" s="11" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfElementClassify/getClassifyListByInput</t>
         </is>
       </c>
-      <c r="D11" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F11" s="11" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>input={*string}</t>
         </is>
       </c>
-      <c r="H11" s="11" t="inlineStr">
+      <c r="H11" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'input', 'in': 'query', 'description': '分类名称或者元素名称', 'required': True, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>crf_元素分类表接口</t>
         </is>
       </c>
-      <c r="B12" s="11" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>根据标签名称或者元素名称查询单个分类或者元素(启用状态)</t>
         </is>
       </c>
-      <c r="C12" s="11" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfElementClassify/getClassifyListByInputStatus</t>
         </is>
       </c>
-      <c r="D12" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F12" s="11" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="inlineStr">
         <is>
           <t>input={*string}</t>
         </is>
       </c>
-      <c r="H12" s="11" t="inlineStr">
+      <c r="H12" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'input', 'in': 'query', 'description': '分类名称或者元素名称', 'required': True, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>crf_元素分类表接口</t>
         </is>
       </c>
-      <c r="B13" s="11" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>根据标签代码查询单个列表(启用状态)</t>
         </is>
       </c>
-      <c r="C13" s="11" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfElementClassify/getClassifyListStatus</t>
         </is>
       </c>
-      <c r="D13" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t>classifyCode={*integer}</t>
         </is>
       </c>
-      <c r="H13" s="11" t="inlineStr">
+      <c r="H13" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'classifyCode', 'in': 'query', 'description': '分类代码', 'required': True, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="inlineStr">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>crf_元素分类表接口</t>
         </is>
       </c>
-      <c r="B14" s="11" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>查询元素分类树状结构(两级)-已启用</t>
         </is>
       </c>
-      <c r="C14" s="11" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfElementClassify/listActiveClassifyTree</t>
         </is>
       </c>
-      <c r="D14" s="11" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="inlineStr">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>crf_元素分类表接口</t>
         </is>
       </c>
-      <c r="B15" s="11" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>查询元素分类树状结构(两级)</t>
         </is>
       </c>
-      <c r="C15" s="11" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfElementClassify/listClassifyTree</t>
         </is>
       </c>
-      <c r="D15" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="n"/>
+      <c r="F15" s="4" t="n"/>
+      <c r="G15" s="4" t="n"/>
+      <c r="H15" s="4" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="11" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>crf_元素分类表接口</t>
         </is>
       </c>
-      <c r="B16" s="11" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>修改标签信息</t>
         </is>
       </c>
-      <c r="C16" s="11" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfElementClassify/updClassify</t>
         </is>
       </c>
-      <c r="D16" s="11" t="inlineStr">
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>put</t>
         </is>
       </c>
-      <c r="E16" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F16" s="11" t="inlineStr"/>
-      <c r="G16" s="11" t="inlineStr">
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="inlineStr"/>
+      <c r="G16" s="4" t="inlineStr">
         <is>
           <t>{"classifyCode": 0, "classifyName": "", "parentCode": 0}</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="inlineStr">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>crf_元素分类表接口</t>
         </is>
       </c>
-      <c r="B17" s="11" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>验证元素名称是否重复</t>
         </is>
       </c>
-      <c r="C17" s="11" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfElementClassify/verifyElementName</t>
         </is>
       </c>
-      <c r="D17" s="11" t="inlineStr">
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t>put</t>
         </is>
       </c>
-      <c r="E17" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F17" s="11" t="inlineStr">
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="inlineStr">
         <is>
           <t>classifyCode={*integer}&amp;classifyName={*string}</t>
         </is>
       </c>
-      <c r="H17" s="11" t="inlineStr">
+      <c r="H17" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'classifyCode', 'in': 'query', 'description': '分类代码', 'required': True, 'type': 'integer', 'format': 'int64'}, {'name': 'classifyName', 'in': 'query', 'description': '分类名称', 'required': True, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="inlineStr">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t>crf_元素分类表接口</t>
         </is>
       </c>
-      <c r="B18" s="11" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>验证标签名称是否重复</t>
         </is>
       </c>
-      <c r="C18" s="11" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfElementClassify/verifyLabelName</t>
         </is>
       </c>
-      <c r="D18" s="11" t="inlineStr">
+      <c r="D18" s="4" t="inlineStr">
         <is>
           <t>put</t>
         </is>
       </c>
-      <c r="E18" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F18" s="11" t="inlineStr">
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="inlineStr">
         <is>
           <t>classifyCode={*integer}&amp;classifyName={*string}</t>
         </is>
       </c>
-      <c r="H18" s="11" t="inlineStr">
+      <c r="H18" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'classifyCode', 'in': 'query', 'description': '分类代码', 'required': True, 'type': 'integer', 'format': 'int64'}, {'name': 'classifyName', 'in': 'query', 'description': '分类名称', 'required': True, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="inlineStr">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>crf_元素信息表接口</t>
         </is>
       </c>
-      <c r="B19" s="11" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>保存元素信息</t>
         </is>
       </c>
-      <c r="C19" s="11" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfElementInfo/addElement</t>
         </is>
       </c>
-      <c r="D19" s="11" t="inlineStr">
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E19" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F19" s="11" t="inlineStr"/>
-      <c r="G19" s="11" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="inlineStr"/>
+      <c r="G19" s="4" t="inlineStr">
         <is>
           <t>{"classifyCode": 0, "dataJson": "", "dataType": 0, "elementCode": 0, "elementDefine": "", "elementName": "", "status": 0}</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="inlineStr">
+      <c r="A20" s="4" t="inlineStr">
         <is>
           <t>crf_元素信息表接口</t>
         </is>
       </c>
-      <c r="B20" s="11" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>验证元素名称是否重复以及是否可删除</t>
         </is>
       </c>
-      <c r="C20" s="11" t="inlineStr">
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfElementInfo/checkElementName</t>
         </is>
       </c>
-      <c r="D20" s="11" t="inlineStr">
+      <c r="D20" s="4" t="inlineStr">
         <is>
           <t>put</t>
         </is>
       </c>
-      <c r="E20" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F20" s="11" t="inlineStr">
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="inlineStr">
         <is>
           <t>elementCode={*integer}&amp;elementName={*string}&amp;type={*ref}</t>
         </is>
       </c>
-      <c r="H20" s="11" t="inlineStr">
+      <c r="H20" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'elementCode', 'in': 'query', 'description': '元素代码', 'required': True, 'type': 'integer', 'format': 'int64'}, {'name': 'elementName', 'in': 'query', 'description': '元素名称', 'required': True, 'type': 'string'}, {'name': 'type', 'in': 'query', 'description': '类型  验证元素名称重复--1    验证是否重复--2', 'required': True, 'type': 'ref'}]</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="inlineStr">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>crf_元素信息表接口</t>
         </is>
       </c>
-      <c r="B21" s="11" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>删除元素信息</t>
         </is>
       </c>
-      <c r="C21" s="11" t="inlineStr">
+      <c r="C21" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfElementInfo/delElement</t>
         </is>
       </c>
-      <c r="D21" s="11" t="inlineStr">
+      <c r="D21" s="4" t="inlineStr">
         <is>
           <t>delete</t>
         </is>
       </c>
-      <c r="F21" s="11" t="inlineStr">
+      <c r="F21" s="4" t="inlineStr">
         <is>
           <t>elementCode={*integer}</t>
         </is>
       </c>
-      <c r="H21" s="11" t="inlineStr">
+      <c r="H21" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'elementCode', 'in': 'query', 'description': '元素代码', 'required': True, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="inlineStr">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>crf_元素信息表接口</t>
         </is>
       </c>
-      <c r="B22" s="11" t="inlineStr">
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t>查询单个元素信息</t>
         </is>
       </c>
-      <c r="C22" s="11" t="inlineStr">
+      <c r="C22" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfElementInfo/getElementInfo</t>
         </is>
       </c>
-      <c r="D22" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F22" s="11" t="inlineStr">
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
         <is>
           <t>elementCode={*integer}</t>
         </is>
       </c>
-      <c r="H22" s="11" t="inlineStr">
+      <c r="H22" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'elementCode', 'in': 'query', 'description': '元素代码', 'required': True, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="inlineStr">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>crf_元素信息表接口</t>
         </is>
       </c>
-      <c r="B23" s="11" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>修改 元素信息</t>
         </is>
       </c>
-      <c r="C23" s="11" t="inlineStr">
+      <c r="C23" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfElementInfo/updElement</t>
         </is>
       </c>
-      <c r="D23" s="11" t="inlineStr">
+      <c r="D23" s="4" t="inlineStr">
         <is>
           <t>put</t>
         </is>
       </c>
-      <c r="E23" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F23" s="11" t="inlineStr"/>
-      <c r="G23" s="11" t="inlineStr">
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr"/>
+      <c r="G23" s="4" t="inlineStr">
         <is>
           <t>{"classifyCode": 0, "dataJson": "", "dataType": 0, "elementCode": 0, "elementDefine": "", "elementName": "", "status": 0}</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="inlineStr">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>crf_元素信息表接口</t>
         </is>
       </c>
-      <c r="B24" s="11" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>修改停用状态</t>
         </is>
       </c>
-      <c r="C24" s="11" t="inlineStr">
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfElementInfo/updStatus</t>
         </is>
       </c>
-      <c r="D24" s="11" t="inlineStr">
+      <c r="D24" s="4" t="inlineStr">
         <is>
           <t>put</t>
         </is>
       </c>
-      <c r="E24" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F24" s="11" t="inlineStr">
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="inlineStr">
         <is>
           <t>elementCode={*integer}&amp;status={*ref}</t>
         </is>
       </c>
-      <c r="H24" s="11" t="inlineStr">
+      <c r="H24" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'elementCode', 'in': 'query', 'description': '元素代码', 'required': True, 'type': 'integer', 'format': 'int64'}, {'name': 'status', 'in': 'query', 'description': '状态  启用--1    停用--0', 'required': True, 'type': 'ref'}]</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="inlineStr">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>随访方案计划表接口</t>
         </is>
       </c>
-      <c r="B25" s="11" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>新增随访计划</t>
         </is>
       </c>
-      <c r="C25" s="11" t="inlineStr">
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfFollowPlan/addFollowPlan</t>
         </is>
       </c>
-      <c r="D25" s="11" t="inlineStr">
+      <c r="D25" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E25" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F25" s="11" t="inlineStr">
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F25" s="4" t="inlineStr">
         <is>
           <t>type={integer}</t>
         </is>
       </c>
-      <c r="G25" s="11" t="inlineStr">
+      <c r="G25" s="4" t="inlineStr">
         <is>
           <t>{"dataJson": "", "firstTime": 0, "firstUnit": 0, "id": 0, "intervalUnit": 0, "isFirst": 0, "lackValueCodes": [], "lastTime": 0, "lastUnit": 0, "planId": 0, "planName": "", "schemeId": 0, "spacing": 0, "versionsId": 0}</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="inlineStr">
+      <c r="A26" s="4" t="inlineStr">
         <is>
           <t>随访方案计划表接口</t>
         </is>
       </c>
-      <c r="B26" s="11" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>新增随访计划(新增为下一版本)</t>
         </is>
       </c>
-      <c r="C26" s="11" t="inlineStr">
+      <c r="C26" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfFollowPlan/addFollowPlanVersions</t>
         </is>
       </c>
-      <c r="D26" s="11" t="inlineStr">
+      <c r="D26" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E26" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F26" s="11" t="inlineStr"/>
-      <c r="G26" s="11" t="inlineStr">
+      <c r="E26" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F26" s="4" t="inlineStr"/>
+      <c r="G26" s="4" t="inlineStr">
         <is>
           <t>{"createId": 0, "createTime": "", "dataJson": "", "firstTime": 0, "firstUnit": 0, "groupId": "", "id": 0, "intervalUnit": 0, "isDelete": 0, "isFirst": 0, "lackValueCodes": "", "lastTime": 0, "lastUnit": 0, "planId": 0, "planName": "", "schemeId": 0, "spacing": 0, "updateId": 0, "updateTime": "", "versionsId": 0}</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="inlineStr">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>随访方案计划表接口</t>
         </is>
       </c>
-      <c r="B27" s="11" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>绑定表单配置id</t>
         </is>
       </c>
-      <c r="C27" s="11" t="inlineStr">
+      <c r="C27" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfFollowPlan/bindFollowConfigGroupId</t>
         </is>
       </c>
-      <c r="D27" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F27" s="11" t="inlineStr">
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F27" s="4" t="inlineStr">
         <is>
           <t>groupId={*string}&amp;idList={*integer}</t>
         </is>
       </c>
-      <c r="H27" s="11" t="inlineStr">
+      <c r="H27" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'groupId', 'in': 'query', 'description': '配置组id', 'required': True, 'type': 'string'}, {'name': 'idList', 'in': 'query', 'description': 'crf_follow_plan主键id,多个id用,分割', 'required': True, 'type': 'integer', 'format': 'int32'}]</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="inlineStr">
+      <c r="A28" s="4" t="inlineStr">
         <is>
           <t>随访方案计划表接口</t>
         </is>
       </c>
-      <c r="B28" s="11" t="inlineStr">
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>复制随访计划</t>
         </is>
       </c>
-      <c r="C28" s="11" t="inlineStr">
+      <c r="C28" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfFollowPlan/copyFollowPlan</t>
         </is>
       </c>
-      <c r="D28" s="11" t="inlineStr">
+      <c r="D28" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E28" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F28" s="11" t="inlineStr">
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
         <is>
           <t>id={ref}</t>
         </is>
       </c>
-      <c r="H28" s="11" t="inlineStr">
+      <c r="H28" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'query', 'description': '主键id', 'required': False, 'type': 'ref'}]</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="11" t="inlineStr">
+      <c r="A29" s="4" t="inlineStr">
         <is>
           <t>随访方案计划表接口</t>
         </is>
       </c>
-      <c r="B29" s="11" t="inlineStr">
+      <c r="B29" s="4" t="inlineStr">
         <is>
           <t>删除随选计划</t>
         </is>
       </c>
-      <c r="C29" s="11" t="inlineStr">
+      <c r="C29" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfFollowPlan/deleteFollowPlan</t>
         </is>
       </c>
-      <c r="D29" s="11" t="inlineStr">
+      <c r="D29" s="4" t="inlineStr">
         <is>
           <t>delete</t>
         </is>
       </c>
-      <c r="F29" s="11" t="inlineStr">
+      <c r="F29" s="4" t="inlineStr">
         <is>
           <t>id={ref}</t>
         </is>
       </c>
-      <c r="H29" s="11" t="inlineStr">
+      <c r="H29" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'query', 'description': '主键id', 'required': False, 'type': 'ref'}]</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="11" t="inlineStr">
+      <c r="A30" s="4" t="inlineStr">
         <is>
           <t>随访方案计划表接口</t>
         </is>
       </c>
-      <c r="B30" s="11" t="inlineStr">
+      <c r="B30" s="4" t="inlineStr">
         <is>
           <t>查询随访计划时间轴</t>
         </is>
       </c>
-      <c r="C30" s="11" t="inlineStr">
+      <c r="C30" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfFollowPlan/queryFollowPlan</t>
         </is>
       </c>
-      <c r="D30" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F30" s="11" t="inlineStr">
+      <c r="D30" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F30" s="4" t="inlineStr">
         <is>
           <t>schemeId={integer}&amp;versionsId={integer}</t>
         </is>
       </c>
-      <c r="H30" s="11" t="inlineStr">
+      <c r="H30" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'schemeId', 'in': 'query', 'description': '随选方案id', 'required': False, 'type': 'integer', 'format': 'int64'}, {'name': 'versionsId', 'in': 'query', 'description': '随选版本id', 'required': False, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="inlineStr">
+      <c r="A31" s="4" t="inlineStr">
         <is>
           <t>随访方案计划表接口</t>
         </is>
       </c>
-      <c r="B31" s="11" t="inlineStr">
+      <c r="B31" s="4" t="inlineStr">
         <is>
           <t>查询单个随选计划</t>
         </is>
       </c>
-      <c r="C31" s="11" t="inlineStr">
+      <c r="C31" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfFollowPlan/queryPlanOne</t>
         </is>
       </c>
-      <c r="D31" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F31" s="11" t="inlineStr">
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F31" s="4" t="inlineStr">
         <is>
           <t>planId={integer}</t>
         </is>
       </c>
-      <c r="H31" s="11" t="inlineStr">
+      <c r="H31" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'planId', 'in': 'query', 'description': '随选计划id', 'required': False, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="inlineStr">
+      <c r="A32" s="4" t="inlineStr">
         <is>
           <t>随访方案计划表接口</t>
         </is>
       </c>
-      <c r="B32" s="11" t="inlineStr">
+      <c r="B32" s="4" t="inlineStr">
         <is>
           <t>修改随选计划</t>
         </is>
       </c>
-      <c r="C32" s="11" t="inlineStr">
+      <c r="C32" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfFollowPlan/updateFollowPlan</t>
         </is>
       </c>
-      <c r="D32" s="11" t="inlineStr">
+      <c r="D32" s="4" t="inlineStr">
         <is>
           <t>put</t>
         </is>
       </c>
-      <c r="E32" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F32" s="11" t="inlineStr"/>
-      <c r="G32" s="11" t="inlineStr">
+      <c r="E32" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F32" s="4" t="inlineStr"/>
+      <c r="G32" s="4" t="inlineStr">
         <is>
           <t>{"dataJson": "", "firstTime": 0, "firstUnit": 0, "id": 0, "intervalUnit": 0, "isFirst": 0, "lackValueCodes": [], "lastTime": 0, "lastUnit": 0, "planId": 0, "planName": "", "schemeId": 0, "spacing": 0, "versionsId": 0}</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="inlineStr">
+      <c r="A33" s="4" t="inlineStr">
         <is>
           <t>随访方案计划表接口</t>
         </is>
       </c>
-      <c r="B33" s="11" t="inlineStr">
+      <c r="B33" s="4" t="inlineStr">
         <is>
           <t>名称重复判定</t>
         </is>
       </c>
-      <c r="C33" s="11" t="inlineStr">
+      <c r="C33" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfFollowPlan/verifyRepetitionPlan</t>
         </is>
       </c>
-      <c r="D33" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F33" s="11" t="inlineStr">
+      <c r="D33" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F33" s="4" t="inlineStr">
         <is>
           <t>planId={integer}&amp;planName={string}&amp;schemeId={integer}</t>
         </is>
       </c>
-      <c r="H33" s="11" t="inlineStr">
+      <c r="H33" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'planId', 'in': 'query', 'description': '随选计划id', 'required': False, 'type': 'integer', 'format': 'int64'}, {'name': 'planName', 'in': 'query', 'description': '方案/计划名称', 'required': False, 'type': 'string'}, {'name': 'schemeId', 'in': 'query', 'description': '方案id', 'required': False, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="inlineStr">
+      <c r="A34" s="4" t="inlineStr">
         <is>
           <t>随访方案表接口</t>
         </is>
       </c>
-      <c r="B34" s="11" t="inlineStr">
+      <c r="B34" s="4" t="inlineStr">
         <is>
           <t>新增随访方案</t>
         </is>
       </c>
-      <c r="C34" s="11" t="inlineStr">
+      <c r="C34" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfFollowScheme/addFollowScheme</t>
         </is>
       </c>
-      <c r="D34" s="11" t="inlineStr">
+      <c r="D34" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E34" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F34" s="11" t="inlineStr"/>
-      <c r="G34" s="11" t="inlineStr">
+      <c r="E34" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F34" s="4" t="inlineStr"/>
+      <c r="G34" s="4" t="inlineStr">
         <is>
           <t>{"abbreviation": "", "classification": "", "executeCycle": "", "id": 0, "itemId": 0, "itemName": "", "planDescription": "", "schemeId": 0, "schemeName": "", "versionsNumber": 0}</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="inlineStr">
+      <c r="A35" s="4" t="inlineStr">
         <is>
           <t>随访方案表接口</t>
         </is>
       </c>
-      <c r="B35" s="11" t="inlineStr">
+      <c r="B35" s="4" t="inlineStr">
         <is>
           <t>复制随选方案</t>
         </is>
       </c>
-      <c r="C35" s="11" t="inlineStr">
+      <c r="C35" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfFollowScheme/copyFollowScheme</t>
         </is>
       </c>
-      <c r="D35" s="11" t="inlineStr">
+      <c r="D35" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E35" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F35" s="11" t="inlineStr">
+      <c r="E35" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F35" s="4" t="inlineStr">
         <is>
           <t>schemeId={integer}&amp;versionsId={integer}</t>
         </is>
       </c>
-      <c r="H35" s="11" t="inlineStr">
+      <c r="H35" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'schemeId', 'in': 'query', 'description': '随访方案id', 'required': False, 'type': 'integer', 'format': 'int64'}, {'name': 'versionsId', 'in': 'query', 'description': '所属版本id', 'required': False, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="inlineStr">
+      <c r="A36" s="4" t="inlineStr">
         <is>
           <t>随访方案表接口</t>
         </is>
       </c>
-      <c r="B36" s="11" t="inlineStr">
+      <c r="B36" s="4" t="inlineStr">
         <is>
           <t>删除随选方案</t>
         </is>
       </c>
-      <c r="C36" s="11" t="inlineStr">
+      <c r="C36" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfFollowScheme/deleteFollowScheme</t>
         </is>
       </c>
-      <c r="D36" s="11" t="inlineStr">
+      <c r="D36" s="4" t="inlineStr">
         <is>
           <t>delete</t>
         </is>
       </c>
-      <c r="F36" s="11" t="inlineStr">
+      <c r="F36" s="4" t="inlineStr">
         <is>
           <t>schemeId={integer}&amp;versionsId={integer}</t>
         </is>
       </c>
-      <c r="H36" s="11" t="inlineStr">
+      <c r="H36" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'schemeId', 'in': 'query', 'description': '随访方案id', 'required': False, 'type': 'integer', 'format': 'int64'}, {'name': 'versionsId', 'in': 'query', 'description': '所属版本id', 'required': False, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="inlineStr">
+      <c r="A37" s="4" t="inlineStr">
         <is>
           <t>随访方案表接口</t>
         </is>
       </c>
-      <c r="B37" s="11" t="inlineStr">
+      <c r="B37" s="4" t="inlineStr">
         <is>
           <t>查询所有启用的随访方案(ecg)</t>
         </is>
       </c>
-      <c r="C37" s="11" t="inlineStr">
+      <c r="C37" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfFollowScheme/queryAllFollowScheme</t>
         </is>
       </c>
-      <c r="D37" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F37" s="11" t="inlineStr">
+      <c r="D37" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F37" s="4" t="inlineStr">
         <is>
           <t>itemId={integer}</t>
         </is>
       </c>
-      <c r="H37" s="11" t="inlineStr">
+      <c r="H37" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'itemId', 'in': 'query', 'description': '项目id', 'required': False, 'type': 'integer', 'format': 'int32'}]</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="inlineStr">
+      <c r="A38" s="4" t="inlineStr">
         <is>
           <t>随访方案表接口</t>
         </is>
       </c>
-      <c r="B38" s="11" t="inlineStr">
+      <c r="B38" s="4" t="inlineStr">
         <is>
           <t>随选方案查询</t>
         </is>
       </c>
-      <c r="C38" s="11" t="inlineStr">
+      <c r="C38" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfFollowScheme/queryFollowScheme</t>
         </is>
       </c>
-      <c r="D38" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F38" s="11" t="inlineStr">
+      <c r="D38" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F38" s="4" t="inlineStr">
         <is>
           <t>currentPage={integer}&amp;date={string}&amp;name={string}&amp;pageSize={integer}&amp;status={integer}</t>
         </is>
       </c>
-      <c r="H38" s="11" t="inlineStr">
+      <c r="H38" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'currentPage', 'in': 'query', 'description': '当前页码', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'date', 'in': 'query', 'description': '\u30001-启用时间倒序 2-启用时间正序 3-最后编辑时间倒序 4-最后编辑时间正序', 'required': False, 'type': 'string'}, {'name': 'name', 'in': 'query', 'description': '查询方案名称/简称', 'required': False, 'type': 'string'}, {'name': 'pageSize', 'in': 'query', 'description': '每页显示数量', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'status', 'in': 'query', 'description': '0:停用;1:已启用;2:未启用', 'required': False, 'type': 'integer', 'format': 'int32'}]</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="inlineStr">
+      <c r="A39" s="4" t="inlineStr">
         <is>
           <t>随访方案表接口</t>
         </is>
       </c>
-      <c r="B39" s="11" t="inlineStr">
+      <c r="B39" s="4" t="inlineStr">
         <is>
           <t>查询所有项目信息</t>
         </is>
       </c>
-      <c r="C39" s="11" t="inlineStr">
+      <c r="C39" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfFollowScheme/queryItemList</t>
         </is>
       </c>
-      <c r="D39" s="11" t="inlineStr">
+      <c r="D39" s="4" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="inlineStr">
+      <c r="A40" s="4" t="inlineStr">
         <is>
           <t>随访方案表接口</t>
         </is>
       </c>
-      <c r="B40" s="11" t="inlineStr">
+      <c r="B40" s="4" t="inlineStr">
         <is>
           <t>查询单个随选方案</t>
         </is>
       </c>
-      <c r="C40" s="11" t="inlineStr">
+      <c r="C40" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfFollowScheme/querySchemeOne</t>
         </is>
       </c>
-      <c r="D40" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F40" s="11" t="inlineStr">
+      <c r="D40" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F40" s="4" t="inlineStr">
         <is>
           <t>schemeId={integer}&amp;versionsId={integer}</t>
         </is>
       </c>
-      <c r="H40" s="11" t="inlineStr">
+      <c r="H40" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'schemeId', 'in': 'query', 'description': '随访方案id', 'required': False, 'type': 'integer', 'format': 'int64'}, {'name': 'versionsId', 'in': 'query', 'description': '所属版本id', 'required': False, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="inlineStr">
+      <c r="A41" s="4" t="inlineStr">
         <is>
           <t>随访方案表接口</t>
         </is>
       </c>
-      <c r="B41" s="11" t="inlineStr">
+      <c r="B41" s="4" t="inlineStr">
         <is>
           <t>查询随选方案所有版本</t>
         </is>
       </c>
-      <c r="C41" s="11" t="inlineStr">
+      <c r="C41" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfFollowScheme/queryVersions</t>
         </is>
       </c>
-      <c r="D41" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F41" s="11" t="inlineStr">
+      <c r="D41" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F41" s="4" t="inlineStr">
         <is>
           <t>schemeId={integer}</t>
         </is>
       </c>
-      <c r="H41" s="11" t="inlineStr">
+      <c r="H41" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'schemeId', 'in': 'query', 'description': '随选方案id', 'required': False, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="11" t="inlineStr">
+      <c r="A42" s="4" t="inlineStr">
         <is>
           <t>随访方案表接口</t>
         </is>
       </c>
-      <c r="B42" s="11" t="inlineStr">
+      <c r="B42" s="4" t="inlineStr">
         <is>
           <t>启用随访方案</t>
         </is>
       </c>
-      <c r="C42" s="11" t="inlineStr">
+      <c r="C42" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfFollowScheme/startFollowScheme</t>
         </is>
       </c>
-      <c r="D42" s="11" t="inlineStr">
+      <c r="D42" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E42" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F42" s="11" t="inlineStr">
+      <c r="E42" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F42" s="4" t="inlineStr">
         <is>
           <t>schemeId={*integer}</t>
         </is>
       </c>
-      <c r="H42" s="11" t="inlineStr">
+      <c r="H42" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'schemeId', 'in': 'query', 'description': '随访方案id', 'required': True, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="11" t="inlineStr">
+      <c r="A43" s="4" t="inlineStr">
         <is>
           <t>随访方案表接口</t>
         </is>
       </c>
-      <c r="B43" s="11" t="inlineStr">
+      <c r="B43" s="4" t="inlineStr">
         <is>
           <t>停用随访方案</t>
         </is>
       </c>
-      <c r="C43" s="11" t="inlineStr">
+      <c r="C43" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfFollowScheme/stopFollowScheme</t>
         </is>
       </c>
-      <c r="D43" s="11" t="inlineStr">
+      <c r="D43" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E43" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F43" s="11" t="inlineStr">
+      <c r="E43" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F43" s="4" t="inlineStr">
         <is>
           <t>schemeId={*integer}</t>
         </is>
       </c>
-      <c r="H43" s="11" t="inlineStr">
+      <c r="H43" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'schemeId', 'in': 'query', 'description': '随访方案id', 'required': True, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="inlineStr">
+      <c r="A44" s="4" t="inlineStr">
         <is>
           <t>随访方案表接口</t>
         </is>
       </c>
-      <c r="B44" s="11" t="inlineStr">
+      <c r="B44" s="4" t="inlineStr">
         <is>
           <t>修改随选方案</t>
         </is>
       </c>
-      <c r="C44" s="11" t="inlineStr">
+      <c r="C44" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfFollowScheme/updateFollowScheme</t>
         </is>
       </c>
-      <c r="D44" s="11" t="inlineStr">
+      <c r="D44" s="4" t="inlineStr">
         <is>
           <t>put</t>
         </is>
       </c>
-      <c r="E44" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F44" s="11" t="inlineStr"/>
-      <c r="G44" s="11" t="inlineStr">
+      <c r="E44" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F44" s="4" t="inlineStr"/>
+      <c r="G44" s="4" t="inlineStr">
         <is>
           <t>{"abbreviation": "", "classification": "", "executeCycle": "", "id": 0, "itemId": 0, "itemName": "", "planDescription": "", "schemeId": 0, "schemeName": "", "versionsNumber": 0}</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="inlineStr">
+      <c r="A45" s="4" t="inlineStr">
         <is>
           <t>随访方案表接口</t>
         </is>
       </c>
-      <c r="B45" s="11" t="inlineStr">
+      <c r="B45" s="4" t="inlineStr">
         <is>
           <t>修改随选方案状态</t>
         </is>
       </c>
-      <c r="C45" s="11" t="inlineStr">
+      <c r="C45" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfFollowScheme/updateFollowSchemeStatus</t>
         </is>
       </c>
-      <c r="D45" s="11" t="inlineStr">
+      <c r="D45" s="4" t="inlineStr">
         <is>
           <t>put</t>
         </is>
       </c>
-      <c r="E45" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F45" s="11" t="inlineStr">
+      <c r="E45" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F45" s="4" t="inlineStr">
         <is>
           <t>schemeId={integer}&amp;status={integer}&amp;type={*integer}&amp;versionsId={integer}</t>
         </is>
       </c>
-      <c r="H45" s="11" t="inlineStr">
+      <c r="H45" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'schemeId', 'in': 'query', 'description': '随访方案id', 'required': False, 'type': 'integer', 'format': 'int64'}, {'name': 'status', 'in': 'query', 'description': '0:停用;1:启用', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'type', 'in': 'query', 'description': '1:心电方案；2:高血压方案', 'required': True, 'type': 'integer', 'format': 'int32'}, {'name': 'versionsId', 'in': 'query', 'description': '所属版本id', 'required': False, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="inlineStr">
+      <c r="A46" s="4" t="inlineStr">
         <is>
           <t>随访方案表接口</t>
         </is>
       </c>
-      <c r="B46" s="11" t="inlineStr">
+      <c r="B46" s="4" t="inlineStr">
         <is>
           <t>方案名称重复判定</t>
         </is>
       </c>
-      <c r="C46" s="11" t="inlineStr">
+      <c r="C46" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfFollowScheme/verifyRepetition</t>
         </is>
       </c>
-      <c r="D46" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F46" s="11" t="inlineStr">
+      <c r="D46" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F46" s="4" t="inlineStr">
         <is>
           <t>schemeId={integer}&amp;schemeName={string}</t>
         </is>
       </c>
-      <c r="H46" s="11" t="inlineStr">
+      <c r="H46" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'schemeId', 'in': 'query', 'description': '随访方案id', 'required': False, 'type': 'integer', 'format': 'int64'}, {'name': 'schemeName', 'in': 'query', 'description': '方案名称', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="inlineStr">
+      <c r="A47" s="4" t="inlineStr">
         <is>
           <t>随访方案表接口</t>
         </is>
       </c>
-      <c r="B47" s="11" t="inlineStr">
+      <c r="B47" s="4" t="inlineStr">
         <is>
           <t>方案简称重复判定</t>
         </is>
       </c>
-      <c r="C47" s="11" t="inlineStr">
+      <c r="C47" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfFollowScheme/verifyRepetitionAbbreviation</t>
         </is>
       </c>
-      <c r="D47" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F47" s="11" t="inlineStr">
+      <c r="D47" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F47" s="4" t="inlineStr">
         <is>
           <t>abbreviation={string}&amp;schemeId={integer}</t>
         </is>
       </c>
-      <c r="H47" s="11" t="inlineStr">
+      <c r="H47" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'abbreviation', 'in': 'query', 'description': '方案简称', 'required': False, 'type': 'string'}, {'name': 'schemeId', 'in': 'query', 'description': '随访方案id', 'required': False, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="inlineStr">
+      <c r="A48" s="4" t="inlineStr">
         <is>
           <t>表单库接口</t>
         </is>
       </c>
-      <c r="B48" s="11" t="inlineStr">
+      <c r="B48" s="4" t="inlineStr">
         <is>
           <t>复制单个表单</t>
         </is>
       </c>
-      <c r="C48" s="11" t="inlineStr">
+      <c r="C48" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfForm/copyAndCreate</t>
         </is>
       </c>
-      <c r="D48" s="11" t="inlineStr">
+      <c r="D48" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E48" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F48" s="11" t="inlineStr">
+      <c r="E48" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F48" s="4" t="inlineStr">
         <is>
           <t>id={string}</t>
         </is>
       </c>
-      <c r="H48" s="11" t="inlineStr">
+      <c r="H48" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'query', 'description': '主键id', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="inlineStr">
+      <c r="A49" s="4" t="inlineStr">
         <is>
           <t>表单库接口</t>
         </is>
       </c>
-      <c r="B49" s="11" t="inlineStr">
+      <c r="B49" s="4" t="inlineStr">
         <is>
           <t>新增单个表单</t>
         </is>
       </c>
-      <c r="C49" s="11" t="inlineStr">
+      <c r="C49" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfForm/create</t>
         </is>
       </c>
-      <c r="D49" s="11" t="inlineStr">
+      <c r="D49" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E49" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F49" s="11" t="inlineStr"/>
-      <c r="G49" s="11" t="inlineStr">
+      <c r="E49" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F49" s="4" t="inlineStr"/>
+      <c r="G49" s="4" t="inlineStr">
         <is>
           <t>{"abbreviation": "", "activationTime": "", "category": "", "categoryShow": "", "createId": 0, "createTime": "", "dataJson": "", "id": 0, "isDelete": 0, "name": "", "remark": "", "status": 0, "updateId": 0, "updateTime": ""}</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="inlineStr">
+      <c r="A50" s="4" t="inlineStr">
         <is>
           <t>表单库接口</t>
         </is>
       </c>
-      <c r="B50" s="11" t="inlineStr">
+      <c r="B50" s="4" t="inlineStr">
         <is>
           <t>删除单个表单</t>
         </is>
       </c>
-      <c r="C50" s="11" t="inlineStr">
+      <c r="C50" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfForm/delete</t>
         </is>
       </c>
-      <c r="D50" s="11" t="inlineStr">
+      <c r="D50" s="4" t="inlineStr">
         <is>
           <t>delete</t>
         </is>
       </c>
-      <c r="F50" s="11" t="inlineStr">
+      <c r="F50" s="4" t="inlineStr">
         <is>
           <t>id={string}</t>
         </is>
       </c>
-      <c r="H50" s="11" t="inlineStr">
+      <c r="H50" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'query', 'description': '主键id', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="inlineStr">
+      <c r="A51" s="4" t="inlineStr">
         <is>
           <t>表单库接口</t>
         </is>
       </c>
-      <c r="B51" s="11" t="inlineStr">
+      <c r="B51" s="4" t="inlineStr">
         <is>
           <t>查询表单列表</t>
         </is>
       </c>
-      <c r="C51" s="11" t="inlineStr">
+      <c r="C51" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfForm/getCrfForm</t>
         </is>
       </c>
-      <c r="D51" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F51" s="11" t="inlineStr">
+      <c r="D51" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F51" s="4" t="inlineStr">
         <is>
           <t>category={string}&amp;currentPage={ref}&amp;name={string}&amp;order={string}&amp;pageSize={ref}&amp;status={string}</t>
         </is>
       </c>
-      <c r="H51" s="11" t="inlineStr">
+      <c r="H51" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'category', 'in': 'query', 'description': '领域', 'required': False, 'type': 'string'}, {'name': 'currentPage', 'in': 'query', 'description': '当前页码', 'required': False, 'type': 'ref'}, {'name': 'name', 'in': 'query', 'description': '表单名称或简称', 'required': False, 'type': 'string'}, {'name': 'order', 'in': 'query', 'description': '排序方式', 'required': False, 'type': 'string'}, {'name': 'pageSize', 'in': 'query', 'description': '每页条数', 'required': False, 'type': 'ref'}, {'name': 'status', 'in': 'query', 'description': '状态', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="inlineStr">
+      <c r="A52" s="4" t="inlineStr">
         <is>
           <t>表单库接口</t>
         </is>
       </c>
-      <c r="B52" s="11" t="inlineStr">
+      <c r="B52" s="4" t="inlineStr">
         <is>
           <t>获取单个表单</t>
         </is>
       </c>
-      <c r="C52" s="11" t="inlineStr">
+      <c r="C52" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfForm/read</t>
         </is>
       </c>
-      <c r="D52" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F52" s="11" t="inlineStr">
+      <c r="D52" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F52" s="4" t="inlineStr">
         <is>
           <t>id={integer}</t>
         </is>
       </c>
-      <c r="H52" s="11" t="inlineStr">
+      <c r="H52" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'query', 'description': 'id', 'required': False, 'type': 'integer', 'format': 'int32'}]</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="inlineStr">
+      <c r="A53" s="4" t="inlineStr">
         <is>
           <t>表单库接口</t>
         </is>
       </c>
-      <c r="B53" s="11" t="inlineStr">
+      <c r="B53" s="4" t="inlineStr">
         <is>
           <t>更新单个表单</t>
         </is>
       </c>
-      <c r="C53" s="11" t="inlineStr">
+      <c r="C53" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfForm/update</t>
         </is>
       </c>
-      <c r="D53" s="11" t="inlineStr">
+      <c r="D53" s="4" t="inlineStr">
         <is>
           <t>put</t>
         </is>
       </c>
-      <c r="E53" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F53" s="11" t="inlineStr"/>
-      <c r="G53" s="11" t="inlineStr">
+      <c r="E53" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F53" s="4" t="inlineStr"/>
+      <c r="G53" s="4" t="inlineStr">
         <is>
           <t>{"abbreviation": "", "activationTime": "", "category": "", "categoryShow": "", "createId": 0, "createTime": "", "dataJson": "", "id": 0, "isDelete": 0, "name": "", "remark": "", "status": 0, "updateId": 0, "updateTime": ""}</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="inlineStr">
+      <c r="A54" s="4" t="inlineStr">
         <is>
           <t>表单库接口</t>
         </is>
       </c>
-      <c r="B54" s="11" t="inlineStr">
+      <c r="B54" s="4" t="inlineStr">
         <is>
           <t>更新单个表单的状态 (启用.停用)</t>
         </is>
       </c>
-      <c r="C54" s="11" t="inlineStr">
+      <c r="C54" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfForm/updateStatus</t>
         </is>
       </c>
-      <c r="D54" s="11" t="inlineStr">
+      <c r="D54" s="4" t="inlineStr">
         <is>
           <t>put</t>
         </is>
       </c>
-      <c r="E54" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F54" s="11" t="inlineStr">
+      <c r="E54" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F54" s="4" t="inlineStr">
         <is>
           <t>id={string}&amp;status={string}</t>
         </is>
       </c>
-      <c r="H54" s="11" t="inlineStr">
+      <c r="H54" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'query', 'description': '主键id', 'required': False, 'type': 'string'}, {'name': 'status', 'in': 'query', 'description': '状态', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="11" t="inlineStr">
+      <c r="A55" s="4" t="inlineStr">
         <is>
           <t>表单和缺省值元素关系表接口</t>
         </is>
       </c>
-      <c r="B55" s="11" t="inlineStr">
+      <c r="B55" s="4" t="inlineStr">
         <is>
           <t>查缺省值元素对应的值</t>
         </is>
       </c>
-      <c r="C55" s="11" t="inlineStr">
+      <c r="C55" s="4" t="inlineStr">
         <is>
           <t>/saascrf/crfFormElement/getDefaultValue</t>
         </is>
       </c>
-      <c r="D55" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H55" s="11" t="inlineStr">
+      <c r="D55" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H55" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'empiId', 'description': 'EMPI索引', 'required': False, 'schema': {'type': 'string'}}, {'name': 'params', 'in': 'query', 'description': 'params', 'required': True, 'items': {'type': 'object', 'additionalProperties': {'type': 'string'}}}, {'name': 'planId', 'description': '随访计划id（主键）', 'required': False, 'schema': {'type': 'string'}}]</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="11" t="inlineStr">
+      <c r="A56" s="4" t="inlineStr">
         <is>
           <t>元素DB分类信息</t>
         </is>
       </c>
-      <c r="B56" s="11" t="inlineStr">
+      <c r="B56" s="4" t="inlineStr">
         <is>
           <t>删除元素DB分类列表</t>
         </is>
       </c>
-      <c r="C56" s="11" t="inlineStr">
+      <c r="C56" s="4" t="inlineStr">
         <is>
           <t>/saascrf/emr/deleteElementDbClassifyList</t>
         </is>
       </c>
-      <c r="D56" s="11" t="inlineStr">
+      <c r="D56" s="4" t="inlineStr">
         <is>
           <t>delete</t>
         </is>
       </c>
-      <c r="F56" s="11" t="inlineStr">
+      <c r="F56" s="4" t="inlineStr">
         <is>
           <t>id={integer}</t>
         </is>
       </c>
-      <c r="H56" s="11" t="inlineStr">
+      <c r="H56" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'query', 'description': 'id', 'required': False, 'type': 'integer', 'format': 'int32'}]</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="inlineStr">
+      <c r="A57" s="4" t="inlineStr">
         <is>
           <t>元素缺省值信息</t>
         </is>
       </c>
-      <c r="B57" s="11" t="inlineStr">
+      <c r="B57" s="4" t="inlineStr">
         <is>
           <t>删除元素缺省值信息</t>
         </is>
       </c>
-      <c r="C57" s="11" t="inlineStr">
+      <c r="C57" s="4" t="inlineStr">
         <is>
           <t>/saascrf/emr/deleteElementDefault</t>
         </is>
       </c>
-      <c r="D57" s="11" t="inlineStr">
+      <c r="D57" s="4" t="inlineStr">
         <is>
           <t>delete</t>
         </is>
       </c>
-      <c r="F57" s="11" t="inlineStr">
+      <c r="F57" s="4" t="inlineStr">
         <is>
           <t>id={integer}</t>
         </is>
       </c>
-      <c r="H57" s="11" t="inlineStr">
+      <c r="H57" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'query', 'description': 'id', 'required': False, 'type': 'integer', 'format': 'int32'}]</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="inlineStr">
+      <c r="A58" s="4" t="inlineStr">
         <is>
           <t>元素DB分类信息</t>
         </is>
       </c>
-      <c r="B58" s="11" t="inlineStr">
+      <c r="B58" s="4" t="inlineStr">
         <is>
           <t>获取元素DB分类列表</t>
         </is>
       </c>
-      <c r="C58" s="11" t="inlineStr">
+      <c r="C58" s="4" t="inlineStr">
         <is>
           <t>/saascrf/emr/getElementDbClassifyList</t>
         </is>
       </c>
-      <c r="D58" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F58" s="11" t="inlineStr">
+      <c r="D58" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F58" s="4" t="inlineStr">
         <is>
           <t>condition={string}</t>
         </is>
       </c>
-      <c r="H58" s="11" t="inlineStr">
+      <c r="H58" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'condition', 'in': 'query', 'description': 'condition', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="inlineStr">
+      <c r="A59" s="4" t="inlineStr">
         <is>
           <t>元素缺省值信息</t>
         </is>
       </c>
-      <c r="B59" s="11" t="inlineStr">
+      <c r="B59" s="4" t="inlineStr">
         <is>
           <t>获取元素缺省值信息列表</t>
         </is>
       </c>
-      <c r="C59" s="11" t="inlineStr">
+      <c r="C59" s="4" t="inlineStr">
         <is>
           <t>/saascrf/emr/getElementDefaultList</t>
         </is>
       </c>
-      <c r="D59" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F59" s="11" t="inlineStr">
+      <c r="D59" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F59" s="4" t="inlineStr">
         <is>
           <t>condition={string}</t>
         </is>
       </c>
-      <c r="H59" s="11" t="inlineStr">
+      <c r="H59" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'condition', 'in': 'query', 'description': 'condition', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="inlineStr">
+      <c r="A60" s="4" t="inlineStr">
         <is>
           <t>元素DB分类信息</t>
         </is>
       </c>
-      <c r="B60" s="11" t="inlineStr">
+      <c r="B60" s="4" t="inlineStr">
         <is>
           <t>增加--元素DB分类信息</t>
         </is>
       </c>
-      <c r="C60" s="11" t="inlineStr">
+      <c r="C60" s="4" t="inlineStr">
         <is>
           <t>/saascrf/emr/saveElementDbClassify</t>
         </is>
       </c>
-      <c r="D60" s="11" t="inlineStr">
+      <c r="D60" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E60" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F60" s="11" t="inlineStr"/>
-      <c r="G60" s="11" t="inlineStr">
+      <c r="E60" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F60" s="4" t="inlineStr"/>
+      <c r="G60" s="4" t="inlineStr">
         <is>
           <t>{"createId": 0, "createName": "", "createTime": "", "dbclassifyCode": "", "id": 0, "itemName": "", "joinRelation": "", "orgNo": "", "parameter": "", "recentEditorId": 0, "recentEditorName": "", "recentEditorTime": "", "recentEditorType": "", "subNo": "", "tableName": ""}</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="inlineStr">
+      <c r="A61" s="4" t="inlineStr">
         <is>
           <t>元素缺省值信息</t>
         </is>
       </c>
-      <c r="B61" s="11" t="inlineStr">
+      <c r="B61" s="4" t="inlineStr">
         <is>
           <t>增加--元素缺省值信息</t>
         </is>
       </c>
-      <c r="C61" s="11" t="inlineStr">
+      <c r="C61" s="4" t="inlineStr">
         <is>
           <t>/saascrf/emr/saveElementDefault</t>
         </is>
       </c>
-      <c r="D61" s="11" t="inlineStr">
+      <c r="D61" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E61" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F61" s="11" t="inlineStr"/>
-      <c r="G61" s="11" t="inlineStr">
+      <c r="E61" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F61" s="4" t="inlineStr"/>
+      <c r="G61" s="4" t="inlineStr">
         <is>
           <t>{"columnName": "", "columnNickName": "", "createId": 0, "createName": "", "createTime": "", "dbclassifCode": "", "diagnosisCategory": "", "diagnosisType": "", "emrDefalutCode": "", "emrDefalutName": "", "id": 0, "orgNo": "", "recentEditorId": 0, "recentEditorName": "", "recentEditorTime": "", "recentEditorType": "", "specialType": "", "subNo": "", "sysName": ""}</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="inlineStr">
+      <c r="A62" s="4" t="inlineStr">
         <is>
           <t>元素DB分类信息</t>
         </is>
       </c>
-      <c r="B62" s="11" t="inlineStr">
+      <c r="B62" s="4" t="inlineStr">
         <is>
           <t>修改--元素DB分类信息</t>
         </is>
       </c>
-      <c r="C62" s="11" t="inlineStr">
+      <c r="C62" s="4" t="inlineStr">
         <is>
           <t>/saascrf/emr/updateElementDbClassify</t>
         </is>
       </c>
-      <c r="D62" s="11" t="inlineStr">
+      <c r="D62" s="4" t="inlineStr">
         <is>
           <t>put</t>
         </is>
       </c>
-      <c r="E62" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F62" s="11" t="inlineStr"/>
-      <c r="G62" s="11" t="inlineStr">
+      <c r="E62" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F62" s="4" t="inlineStr"/>
+      <c r="G62" s="4" t="inlineStr">
         <is>
           <t>{"createId": 0, "createName": "", "createTime": "", "dbclassifyCode": "", "id": 0, "itemName": "", "joinRelation": "", "orgNo": "", "parameter": "", "recentEditorId": 0, "recentEditorName": "", "recentEditorTime": "", "recentEditorType": "", "subNo": "", "tableName": ""}</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="inlineStr">
+      <c r="A63" s="4" t="inlineStr">
         <is>
           <t>元素缺省值信息</t>
         </is>
       </c>
-      <c r="B63" s="11" t="inlineStr">
+      <c r="B63" s="4" t="inlineStr">
         <is>
           <t>修改--元素缺省值信息</t>
         </is>
       </c>
-      <c r="C63" s="11" t="inlineStr">
+      <c r="C63" s="4" t="inlineStr">
         <is>
           <t>/saascrf/emr/updateElementDefault</t>
         </is>
       </c>
-      <c r="D63" s="11" t="inlineStr">
+      <c r="D63" s="4" t="inlineStr">
         <is>
           <t>put</t>
         </is>
       </c>
-      <c r="E63" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F63" s="11" t="inlineStr"/>
-      <c r="G63" s="11" t="inlineStr">
+      <c r="E63" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F63" s="4" t="inlineStr"/>
+      <c r="G63" s="4" t="inlineStr">
         <is>
           <t>{"columnName": "", "columnNickName": "", "createId": 0, "createName": "", "createTime": "", "dbclassifCode": "", "diagnosisCategory": "", "diagnosisType": "", "emrDefalutCode": "", "emrDefalutName": "", "id": 0, "orgNo": "", "recentEditorId": 0, "recentEditorName": "", "recentEditorTime": "", "recentEditorType": "", "specialType": "", "subNo": "", "sysName": ""}</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="inlineStr">
+      <c r="A64" s="4" t="inlineStr">
         <is>
           <t>随访表单配置Controller</t>
         </is>
       </c>
-      <c r="B64" s="11" t="inlineStr">
+      <c r="B64" s="4" t="inlineStr">
         <is>
           <t>添加表单别名配置信息</t>
         </is>
       </c>
-      <c r="C64" s="11" t="inlineStr">
+      <c r="C64" s="4" t="inlineStr">
         <is>
           <t>/saascrf/followConfig/addFollowConfig</t>
         </is>
       </c>
-      <c r="D64" s="11" t="inlineStr">
+      <c r="D64" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E64" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F64" s="11" t="inlineStr"/>
-      <c r="G64" s="11" t="inlineStr">
+      <c r="E64" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F64" s="4" t="inlineStr"/>
+      <c r="G64" s="4" t="inlineStr">
         <is>
           <t>{"alias": "", "createAt": "", "createBy": "", "defValue": "", "groupId": "", "id": 0, "leftData": "", "otherInput": "", "rightData": "", "selCheckBox": "", "selUnit": "", "updateAt": "", "updateBy": "", "validStatus": 0}</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="inlineStr">
+      <c r="A65" s="4" t="inlineStr">
         <is>
           <t>随访表单配置Controller</t>
         </is>
       </c>
-      <c r="B65" s="11" t="inlineStr">
+      <c r="B65" s="4" t="inlineStr">
         <is>
           <t>逻辑删除表单别名配置信息</t>
         </is>
       </c>
-      <c r="C65" s="11" t="inlineStr">
+      <c r="C65" s="4" t="inlineStr">
         <is>
           <t>/saascrf/followConfig/delFollowConfig</t>
         </is>
       </c>
-      <c r="D65" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F65" s="11" t="inlineStr">
+      <c r="D65" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F65" s="4" t="inlineStr">
         <is>
           <t>idList={*integer}</t>
         </is>
       </c>
-      <c r="H65" s="11" t="inlineStr">
+      <c r="H65" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'idList', 'in': 'query', 'description': 'crf_follow_config主键id,多个id用,分割', 'required': True, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="inlineStr">
+      <c r="A66" s="4" t="inlineStr">
         <is>
           <t>随访表单配置Controller</t>
         </is>
       </c>
-      <c r="B66" s="11" t="inlineStr">
+      <c r="B66" s="4" t="inlineStr">
         <is>
           <t>修改表单别名配置信息</t>
         </is>
       </c>
-      <c r="C66" s="11" t="inlineStr">
+      <c r="C66" s="4" t="inlineStr">
         <is>
           <t>/saascrf/followConfig/editFollowConfig</t>
         </is>
       </c>
-      <c r="D66" s="11" t="inlineStr">
+      <c r="D66" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E66" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F66" s="11" t="inlineStr"/>
-      <c r="G66" s="11" t="inlineStr">
+      <c r="E66" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F66" s="4" t="inlineStr"/>
+      <c r="G66" s="4" t="inlineStr">
         <is>
           <t>{"alias": "", "createAt": "", "createBy": "", "defValue": "", "groupId": "", "id": 0, "leftData": "", "otherInput": "", "rightData": "", "selCheckBox": "", "selUnit": "", "updateAt": "", "updateBy": "", "validStatus": 0}</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="inlineStr">
+      <c r="A67" s="4" t="inlineStr">
         <is>
           <t>随访表单配置Controller</t>
         </is>
       </c>
-      <c r="B67" s="11" t="inlineStr">
+      <c r="B67" s="4" t="inlineStr">
         <is>
           <t>根据组id获取对应的配置信息</t>
         </is>
       </c>
-      <c r="C67" s="11" t="inlineStr">
+      <c r="C67" s="4" t="inlineStr">
         <is>
           <t>/saascrf/followConfig/queryFollowConfigPage</t>
         </is>
       </c>
-      <c r="D67" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F67" s="11" t="inlineStr">
+      <c r="D67" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F67" s="4" t="inlineStr">
         <is>
           <t>currentPage={*integer}&amp;groupId={string}&amp;pageSize={*integer}</t>
         </is>
       </c>
-      <c r="H67" s="11" t="inlineStr">
+      <c r="H67" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'currentPage', 'in': 'query', 'description': '当前页', 'required': True, 'type': 'integer', 'format': 'int32'}, {'name': 'groupId', 'in': 'query', 'description': '随访别名配置分组id', 'required': False, 'type': 'string'}, {'name': 'pageSize', 'in': 'query', 'description': '每页大小', 'required': True, 'type': 'integer', 'format': 'int32'}]</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="11" t="inlineStr">
+      <c r="A68" s="4" t="inlineStr">
         <is>
           <t>随访表单配置分组Controller</t>
         </is>
       </c>
-      <c r="B68" s="11" t="inlineStr">
+      <c r="B68" s="4" t="inlineStr">
         <is>
           <t>添加表单别名配置分组信息</t>
         </is>
       </c>
-      <c r="C68" s="11" t="inlineStr">
+      <c r="C68" s="4" t="inlineStr">
         <is>
           <t>/saascrf/followConfigGroup/addFollowConfigGroup</t>
         </is>
       </c>
-      <c r="D68" s="11" t="inlineStr">
+      <c r="D68" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E68" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F68" s="11" t="inlineStr"/>
-      <c r="G68" s="11" t="inlineStr">
+      <c r="E68" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F68" s="4" t="inlineStr"/>
+      <c r="G68" s="4" t="inlineStr">
         <is>
           <t>{"createAt": "", "createBy": "", "groupDesc": "", "groupId": "", "id": 0, "updateAt": "", "updateBy": "", "validStatus": 0}</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="11" t="inlineStr">
+      <c r="A69" s="4" t="inlineStr">
         <is>
           <t>随访表单配置分组Controller</t>
         </is>
       </c>
-      <c r="B69" s="11" t="inlineStr">
+      <c r="B69" s="4" t="inlineStr">
         <is>
           <t>逻辑删除表单别名配置分组信息</t>
         </is>
       </c>
-      <c r="C69" s="11" t="inlineStr">
+      <c r="C69" s="4" t="inlineStr">
         <is>
           <t>/saascrf/followConfigGroup/delFollowConfigGroup</t>
         </is>
       </c>
-      <c r="D69" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F69" s="11" t="inlineStr">
+      <c r="D69" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F69" s="4" t="inlineStr">
         <is>
           <t>idList={*integer}</t>
         </is>
       </c>
-      <c r="H69" s="11" t="inlineStr">
+      <c r="H69" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'idList', 'in': 'query', 'description': 'crf_follow_config_group主键id,多个id用,分割', 'required': True, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="11" t="inlineStr">
+      <c r="A70" s="4" t="inlineStr">
         <is>
           <t>随访表单配置分组Controller</t>
         </is>
       </c>
-      <c r="B70" s="11" t="inlineStr">
+      <c r="B70" s="4" t="inlineStr">
         <is>
           <t>修改表单别名配置分组信息</t>
         </is>
       </c>
-      <c r="C70" s="11" t="inlineStr">
+      <c r="C70" s="4" t="inlineStr">
         <is>
           <t>/saascrf/followConfigGroup/editFollowConfigGroup</t>
         </is>
       </c>
-      <c r="D70" s="11" t="inlineStr">
+      <c r="D70" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E70" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F70" s="11" t="inlineStr"/>
-      <c r="G70" s="11" t="inlineStr">
+      <c r="E70" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F70" s="4" t="inlineStr"/>
+      <c r="G70" s="4" t="inlineStr">
         <is>
           <t>{"createAt": "", "createBy": "", "groupDesc": "", "groupId": "", "id": 0, "updateAt": "", "updateBy": "", "validStatus": 0}</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="11" t="inlineStr">
+      <c r="A71" s="4" t="inlineStr">
         <is>
           <t>随访表单配置分组Controller</t>
         </is>
       </c>
-      <c r="B71" s="11" t="inlineStr">
+      <c r="B71" s="4" t="inlineStr">
         <is>
           <t>根据组id获取对应的分组信息</t>
         </is>
       </c>
-      <c r="C71" s="11" t="inlineStr">
+      <c r="C71" s="4" t="inlineStr">
         <is>
           <t>/saascrf/followConfigGroup/queryFollowConfigGroupPage</t>
         </is>
       </c>
-      <c r="D71" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F71" s="11" t="inlineStr">
+      <c r="D71" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F71" s="4" t="inlineStr">
         <is>
           <t>currentPage={*integer}&amp;id={integer}&amp;pageSize={*integer}</t>
         </is>
       </c>
-      <c r="H71" s="11" t="inlineStr">
+      <c r="H71" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'currentPage', 'in': 'query', 'description': '当前页', 'required': True, 'type': 'integer', 'format': 'int32'}, {'name': 'id', 'in': 'query', 'description': '随访别名配置分组id', 'required': False, 'type': 'integer', 'format': 'int64'}, {'name': 'pageSize', 'in': 'query', 'description': '每页大小', 'required': True, 'type': 'integer', 'format': 'int32'}]</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="11" t="inlineStr">
+      <c r="A72" s="4" t="inlineStr">
         <is>
           <t>test1测试用表</t>
         </is>
       </c>
-      <c r="B72" s="11" t="inlineStr">
+      <c r="B72" s="4" t="inlineStr">
         <is>
           <t>新增</t>
         </is>
       </c>
-      <c r="C72" s="11" t="inlineStr">
+      <c r="C72" s="4" t="inlineStr">
         <is>
           <t>/saascrf/genTest1/create</t>
         </is>
       </c>
-      <c r="D72" s="11" t="inlineStr">
+      <c r="D72" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E72" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F72" s="11" t="inlineStr">
+      <c r="E72" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F72" s="4" t="inlineStr">
         <is>
           <t>id={integer}&amp;testName={string}</t>
         </is>
       </c>
-      <c r="H72" s="11" t="inlineStr">
+      <c r="H72" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'query', 'description': '主健id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'testName', 'in': 'query', 'description': '测试字段值', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="11" t="inlineStr">
+      <c r="A73" s="4" t="inlineStr">
         <is>
           <t>test1测试用表</t>
         </is>
       </c>
-      <c r="B73" s="11" t="inlineStr">
+      <c r="B73" s="4" t="inlineStr">
         <is>
           <t>删除</t>
         </is>
       </c>
-      <c r="C73" s="11" t="inlineStr">
+      <c r="C73" s="4" t="inlineStr">
         <is>
           <t>/saascrf/genTest1/delete/{id}</t>
         </is>
       </c>
-      <c r="D73" s="11" t="inlineStr">
+      <c r="D73" s="4" t="inlineStr">
         <is>
           <t>delete</t>
         </is>
       </c>
-      <c r="F73" s="11" t="inlineStr"/>
-      <c r="H73" s="11" t="inlineStr">
+      <c r="F73" s="4" t="inlineStr"/>
+      <c r="H73" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="11" t="inlineStr">
+      <c r="A74" s="4" t="inlineStr">
         <is>
           <t>test1测试用表</t>
         </is>
       </c>
-      <c r="B74" s="11" t="inlineStr">
+      <c r="B74" s="4" t="inlineStr">
         <is>
           <t>分页查询</t>
         </is>
       </c>
-      <c r="C74" s="11" t="inlineStr">
+      <c r="C74" s="4" t="inlineStr">
         <is>
           <t>/saascrf/genTest1/page</t>
         </is>
       </c>
-      <c r="D74" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H74" s="11" t="inlineStr">
+      <c r="D74" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H74" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'currPage', 'description': '当前页', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}, {'name': 'pageSize', 'description': '每页显示数量', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}]</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="11" t="inlineStr">
+      <c r="A75" s="4" t="inlineStr">
         <is>
           <t>test1测试用表</t>
         </is>
       </c>
-      <c r="B75" s="11" t="inlineStr">
+      <c r="B75" s="4" t="inlineStr">
         <is>
           <t>通过ID获取一条数据</t>
         </is>
       </c>
-      <c r="C75" s="11" t="inlineStr">
+      <c r="C75" s="4" t="inlineStr">
         <is>
           <t>/saascrf/genTest1/read/{id}</t>
         </is>
       </c>
-      <c r="D75" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F75" s="11" t="inlineStr"/>
-      <c r="H75" s="11" t="inlineStr">
+      <c r="D75" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F75" s="4" t="inlineStr"/>
+      <c r="H75" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="11" t="inlineStr">
+      <c r="A76" s="4" t="inlineStr">
         <is>
           <t>test1测试用表</t>
         </is>
       </c>
-      <c r="B76" s="11" t="inlineStr">
+      <c r="B76" s="4" t="inlineStr">
         <is>
           <t>更新</t>
         </is>
       </c>
-      <c r="C76" s="11" t="inlineStr">
+      <c r="C76" s="4" t="inlineStr">
         <is>
           <t>/saascrf/genTest1/update</t>
         </is>
       </c>
-      <c r="D76" s="11" t="inlineStr">
+      <c r="D76" s="4" t="inlineStr">
         <is>
           <t>put</t>
         </is>
       </c>
-      <c r="E76" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F76" s="11" t="inlineStr">
+      <c r="E76" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F76" s="4" t="inlineStr">
         <is>
           <t>id={integer}&amp;testName={string}</t>
         </is>
       </c>
-      <c r="H76" s="11" t="inlineStr">
+      <c r="H76" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'query', 'description': '主健id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'testName', 'in': 'query', 'description': '测试字段值', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="11" t="inlineStr">
+      <c r="A77" s="4" t="inlineStr">
         <is>
           <t>测试用表2</t>
         </is>
       </c>
-      <c r="B77" s="11" t="inlineStr">
+      <c r="B77" s="4" t="inlineStr">
         <is>
           <t>新增</t>
         </is>
       </c>
-      <c r="C77" s="11" t="inlineStr">
+      <c r="C77" s="4" t="inlineStr">
         <is>
           <t>/saascrf/genTest2/create</t>
         </is>
       </c>
-      <c r="D77" s="11" t="inlineStr">
+      <c r="D77" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E77" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F77" s="11" t="inlineStr">
+      <c r="E77" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F77" s="4" t="inlineStr">
         <is>
           <t>id={integer}&amp;testName={string}</t>
         </is>
       </c>
-      <c r="H77" s="11" t="inlineStr">
+      <c r="H77" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'query', 'description': '主健id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'testName', 'in': 'query', 'description': '测试字段名', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="11" t="inlineStr">
+      <c r="A78" s="4" t="inlineStr">
         <is>
           <t>测试用表2</t>
         </is>
       </c>
-      <c r="B78" s="11" t="inlineStr">
+      <c r="B78" s="4" t="inlineStr">
         <is>
           <t>删除</t>
         </is>
       </c>
-      <c r="C78" s="11" t="inlineStr">
+      <c r="C78" s="4" t="inlineStr">
         <is>
           <t>/saascrf/genTest2/delete/{id}</t>
         </is>
       </c>
-      <c r="D78" s="11" t="inlineStr">
+      <c r="D78" s="4" t="inlineStr">
         <is>
           <t>delete</t>
         </is>
       </c>
-      <c r="F78" s="11" t="inlineStr"/>
-      <c r="H78" s="11" t="inlineStr">
+      <c r="F78" s="4" t="inlineStr"/>
+      <c r="H78" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="11" t="inlineStr">
+      <c r="A79" s="4" t="inlineStr">
         <is>
           <t>测试用表2</t>
         </is>
       </c>
-      <c r="B79" s="11" t="inlineStr">
+      <c r="B79" s="4" t="inlineStr">
         <is>
           <t>分页查询</t>
         </is>
       </c>
-      <c r="C79" s="11" t="inlineStr">
+      <c r="C79" s="4" t="inlineStr">
         <is>
           <t>/saascrf/genTest2/page</t>
         </is>
       </c>
-      <c r="D79" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H79" s="11" t="inlineStr">
+      <c r="D79" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H79" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'currPage', 'description': '当前页', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}, {'name': 'pageSize', 'description': '每页显示数量', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}]</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="11" t="inlineStr">
+      <c r="A80" s="4" t="inlineStr">
         <is>
           <t>测试用表2</t>
         </is>
       </c>
-      <c r="B80" s="11" t="inlineStr">
+      <c r="B80" s="4" t="inlineStr">
         <is>
           <t>通过ID获取一条数据</t>
         </is>
       </c>
-      <c r="C80" s="11" t="inlineStr">
+      <c r="C80" s="4" t="inlineStr">
         <is>
           <t>/saascrf/genTest2/read/{id}</t>
         </is>
       </c>
-      <c r="D80" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F80" s="11" t="inlineStr"/>
-      <c r="H80" s="11" t="inlineStr">
+      <c r="D80" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F80" s="4" t="inlineStr"/>
+      <c r="H80" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="11" t="inlineStr">
+      <c r="A81" s="4" t="inlineStr">
         <is>
           <t>测试用表2</t>
         </is>
       </c>
-      <c r="B81" s="11" t="inlineStr">
+      <c r="B81" s="4" t="inlineStr">
         <is>
           <t>更新</t>
         </is>
       </c>
-      <c r="C81" s="11" t="inlineStr">
+      <c r="C81" s="4" t="inlineStr">
         <is>
           <t>/saascrf/genTest2/update</t>
         </is>
       </c>
-      <c r="D81" s="11" t="inlineStr">
+      <c r="D81" s="4" t="inlineStr">
         <is>
           <t>put</t>
         </is>
       </c>
-      <c r="E81" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F81" s="11" t="inlineStr">
+      <c r="E81" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F81" s="4" t="inlineStr">
         <is>
           <t>id={integer}&amp;testName={string}</t>
         </is>
       </c>
-      <c r="H81" s="11" t="inlineStr">
+      <c r="H81" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'query', 'description': '主健id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'testName', 'in': 'query', 'description': '测试字段名', 'required': False, 'type': 'string'}]</t>
         </is>
